--- a/TableExample/ResultTableExample.xlsx
+++ b/TableExample/ResultTableExample.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Info" sheetId="4" r:id="rId1"/>
+    <sheet name="I_8_LLM3_table" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>NaN</t>
   </si>
@@ -74,6 +73,37 @@
   <si>
     <t>stability</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+  The result tables in the programs are named after the following principles: 
+  The result tables' name contains I, II or III (depending on corresponding 
+  parameter set), 1,8 or 16 (depending on value of N_D, with 1 for N_D = 1.5), 
+  and the name of the equilibrium, according to the names used in thesis. 
+  The example result table is named I_8_LLM3_table; therefore it contains 
+  the results for Equilibrium LLM3, calculated with parameter set I and 
+  N_D = 8. 
+  The table entries have been copied into an Excel File. 
+  Remarks have been added. The first column (row names) has been added 
+  and three rows have been highlighted for a better overview. 
+  All result tables have 400 columns. 
+  Remark: some result tables contain "not a number" (NaN) entries. 
+  This is the case if calculated values do not meet requirements 
+  for actual equilibria, e.g. negative concentrations. 
+  Some tables contain complex values; these values do not obtain 
+  actual equilibria. 
+  In ResultTableExample.xlsx the first column contains NaN entries 
+  due to the fact that in the chosen example the assumption for 
+  actual equilibria is violated in layer dephts smaller than 1.136 m. </t>
+  </si>
+  <si>
+    <t>Example Matlab Result Tables, I_8_LLM3_table</t>
+  </si>
+  <si>
+    <t>Diploma Thesis, Petra Fuhs (Christian-Albrecht-Universität zu Kiel)</t>
+  </si>
+  <si>
+    <t>Kiel, November 2014</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,17 +158,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -154,6 +202,60 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="723900"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -520,9 +622,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:OK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -22227,28 +22367,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>